--- a/docss/trend/spain/E_scleroderma.xlsx
+++ b/docss/trend/spain/E_scleroderma.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej16_Esclerodermia_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej16_Esclerodermia" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12810,7 +12810,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12834,13 +12834,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>0.14757440499987118</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="C2">
-        <v>5.385956448555447E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D2">
-        <v>0.23135101828146329</v>
+        <v>0.23100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12848,13 +12848,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.12952320786999164</v>
+        <v>0.13</v>
       </c>
       <c r="C3">
-        <v>5.8003554735872917E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D3">
-        <v>0.19104672315078872</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12862,13 +12862,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>0.11208427904415323</v>
+        <v>0.112</v>
       </c>
       <c r="C4">
-        <v>5.4988759986354052E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D4">
-        <v>0.16076325178294176</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12876,13 +12876,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>0.10696934972136826</v>
+        <v>0.107</v>
       </c>
       <c r="C5">
-        <v>6.3571036300534775E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D5">
-        <v>0.14024211332236644</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12890,13 +12890,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>0.11592993216695796</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="C6">
-        <v>3.9169506990813223E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D6">
-        <v>0.17880120448682132</v>
+        <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12904,13 +12904,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>0.12135400101193421</v>
+        <v>0.121</v>
       </c>
       <c r="C7">
-        <v>5.1263495171727104E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D7">
-        <v>0.17896974326702886</v>
+        <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12918,13 +12918,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>0.14109475498264182</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="C8">
-        <v>8.0975001941968022E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D8">
-        <v>0.19424085756757989</v>
+        <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12932,13 +12932,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>0.12452366890800516</v>
+        <v>0.125</v>
       </c>
       <c r="C9">
-        <v>3.4396648991853393E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D9">
-        <v>0.19727031334997686</v>
+        <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12946,13 +12946,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>0.1136168612757076</v>
+        <v>0.114</v>
       </c>
       <c r="C10">
-        <v>5.1160955705366433E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D10">
-        <v>0.16455048810970735</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12960,13 +12960,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0.12303222151825552</v>
+        <v>0.123</v>
       </c>
       <c r="C11">
-        <v>5.7123536277504071E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D11">
-        <v>0.1807523968574343</v>
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12974,13 +12974,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.1396432909870908</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C12">
-        <v>7.4297740023701611E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D12">
-        <v>0.19449143129534716</v>
+        <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12988,13 +12988,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>0.13609255761357567</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="C13">
-        <v>8.0048302851546321E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D13">
-        <v>0.18346731972587557</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13002,13 +13002,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>0.13937991277837758</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="C14">
-        <v>6.2908522480379675E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D14">
-        <v>0.20381303118057328</v>
+        <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13016,13 +13016,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0.11945951519978507</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="C15">
-        <v>4.7567366954788359E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D15">
-        <v>0.1783242465099808</v>
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13030,13 +13030,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>0.171481195357963</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="C16">
-        <v>7.8595101516001978E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D16">
-        <v>0.24875023526128059</v>
+        <v>0.249</v>
       </c>
     </row>
   </sheetData>
